--- a/test_freeze/free_all/free_all.xlsx
+++ b/test_freeze/free_all/free_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toanlk\Desktop\ToolsChangeExcel\test_freeze\free_all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\tool-excel\test_freeze\free_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8156E10-444A-47F2-A573-29CDCD526E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C54156C-A9DD-4712-8328-A7D39393514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1590" windowWidth="21435" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,9 @@
       <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -425,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1985,1137 +1985,1137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
